--- a/dest.xlsx
+++ b/dest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ymasaki\git\networkreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BAF478-4295-4741-8845-9178321E9890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B781D7-385F-4752-B584-735B664C6BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34005" yWindow="2400" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="990" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,11 +27,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>192.168.11.200</t>
+    <t>192.168.11.222</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>192.168.11.222</t>
+    <t>google.com</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -39,7 +39,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +52,14 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -72,13 +80,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -359,7 +370,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -367,18 +380,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://google.com" xr:uid="{0030F2F6-A663-4D41-A51C-CB5440C0A8F6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>